--- a/RhythmiCar_Unity/Assets/Resources/Data/DataBase.xlsx
+++ b/RhythmiCar_Unity/Assets/Resources/Data/DataBase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSH\Documents\Rhythm\RhythmiCar_Unity\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA08046-ECA7-4BFA-8AE1-A9FC082DCCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBAE507-1A6F-499C-AA0D-9EBC913DE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14571" yWindow="514" windowWidth="18575" windowHeight="7535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="3540" windowWidth="12090" windowHeight="7905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CarData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="SongData" sheetId="2" r:id="rId2"/>
+    <sheet name="StageData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -308,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,21 +366,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>songEquipCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOpend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막의 질주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울타리 마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>isOpend</t>
+  </si>
+  <si>
+    <t>아지랑이 사막</t>
+  </si>
+  <si>
+    <t>울타리 도시</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -486,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,22 +536,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -795,16 +829,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="13" bestFit="1" customWidth="1"/>
@@ -819,34 +853,34 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -854,34 +888,34 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>2000</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>11.1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>101</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>151</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>41</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>31</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>21</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>51</v>
       </c>
     </row>
@@ -889,34 +923,34 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
         <v>100</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>12</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>102</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>152</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>42</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>32</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>22</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>52</v>
       </c>
     </row>
@@ -924,34 +958,34 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="10">
         <v>150</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>13</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>103</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>153</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>43</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>33</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>23</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>53</v>
       </c>
     </row>
@@ -959,34 +993,34 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="10">
         <v>200</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>14</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>104</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>154</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>44</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>34</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>24</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>54</v>
       </c>
     </row>
@@ -994,34 +1028,34 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="10">
         <v>250</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>15</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>105</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>155</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>45</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>35</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>25</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>55</v>
       </c>
     </row>
@@ -1029,34 +1063,34 @@
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="10">
         <v>300</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>16</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>106</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>156</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>46</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>36</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>26</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>56</v>
       </c>
     </row>
@@ -1064,34 +1098,34 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="10">
         <v>350</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>17</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>107</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>157</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>47</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>37</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>27</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>57</v>
       </c>
     </row>
@@ -1099,34 +1133,34 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="10">
         <v>400</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>18</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>108</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>158</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>48</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>38</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>28</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>58</v>
       </c>
     </row>
@@ -1134,34 +1168,34 @@
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="10">
         <v>450</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>19</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>109</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>159</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>49</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>39</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>29</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>59</v>
       </c>
     </row>
@@ -1169,13 +1203,13 @@
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <v>500</v>
       </c>
       <c r="E11" s="12">
@@ -1204,34 +1238,34 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>3</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="13">
         <v>5000</v>
       </c>
       <c r="E12" s="13">
         <v>12</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>102</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>152</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="11">
         <v>42</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <v>32</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <v>22</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="11">
         <v>52</v>
       </c>
     </row>
@@ -1239,34 +1273,34 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13">
         <v>200</v>
       </c>
       <c r="E13" s="13">
         <v>13</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>103</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <v>153</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="11">
         <v>43</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="11">
         <v>33</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="11">
         <v>23</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="11">
         <v>53</v>
       </c>
     </row>
@@ -1274,34 +1308,34 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>3</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="13">
         <v>250</v>
       </c>
       <c r="E14" s="13">
         <v>14</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>104</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>154</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="11">
         <v>44</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="11">
         <v>34</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="11">
         <v>24</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="11">
         <v>54</v>
       </c>
     </row>
@@ -1309,34 +1343,34 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="13">
         <v>4</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="13">
         <v>300</v>
       </c>
       <c r="E15" s="13">
         <v>15</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>105</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>155</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="11">
         <v>45</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="11">
         <v>35</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="11">
         <v>25</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="11">
         <v>55</v>
       </c>
     </row>
@@ -1344,34 +1378,34 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="13">
         <v>5</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="13">
         <v>350</v>
       </c>
       <c r="E16" s="13">
         <v>16</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>106</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>156</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="11">
         <v>46</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="11">
         <v>36</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="11">
         <v>26</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="11">
         <v>56</v>
       </c>
     </row>
@@ -1379,34 +1413,34 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="13">
         <v>6</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="13">
         <v>400</v>
       </c>
       <c r="E17" s="13">
         <v>17</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>107</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>157</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="11">
         <v>47</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <v>37</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="11">
         <v>27</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="11">
         <v>57</v>
       </c>
     </row>
@@ -1414,34 +1448,34 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="13">
         <v>3</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="13">
         <v>7</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="13">
         <v>450</v>
       </c>
       <c r="E18" s="13">
         <v>18</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>108</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="11">
         <v>158</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="11">
         <v>48</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="11">
         <v>38</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="11">
         <v>28</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="11">
         <v>58</v>
       </c>
     </row>
@@ -1449,34 +1483,34 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="13">
         <v>3</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="13">
         <v>8</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="13">
         <v>500</v>
       </c>
       <c r="E19" s="13">
         <v>19</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>109</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="11">
         <v>159</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="11">
         <v>49</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="11">
         <v>39</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="11">
         <v>29</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="11">
         <v>59</v>
       </c>
     </row>
@@ -1484,34 +1518,34 @@
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="13">
         <v>3</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="13">
         <v>9</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="13">
         <v>550</v>
       </c>
       <c r="E20" s="13">
         <v>20</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <v>110</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="11">
         <v>160</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="11">
         <v>50</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="11">
         <v>40</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="11">
         <v>30</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="11">
         <v>60</v>
       </c>
     </row>
@@ -1519,34 +1553,34 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>3</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="13">
         <v>10</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="13">
         <v>600</v>
       </c>
       <c r="E21" s="13">
         <v>21</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>111</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="11">
         <v>161</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="11">
         <v>51</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="11">
         <v>41</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="11">
         <v>31</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="11">
         <v>61</v>
       </c>
     </row>
@@ -1554,34 +1588,34 @@
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="9">
         <v>10000</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>13</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>103</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>153</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>43</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>33</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>23</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>53</v>
       </c>
     </row>
@@ -1589,34 +1623,34 @@
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="5">
-        <v>2</v>
-      </c>
-      <c r="C23" s="17">
-        <v>2</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10">
         <v>1000</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>14</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>104</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="11">
         <v>154</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="11">
         <v>44</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="11">
         <v>34</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="11">
         <v>24</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="11">
         <v>54</v>
       </c>
     </row>
@@ -1624,34 +1658,34 @@
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5">
-        <v>2</v>
-      </c>
-      <c r="C24" s="17">
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10">
         <v>3</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="10">
         <v>1100</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>15</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>105</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="11">
         <v>155</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="11">
         <v>45</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="11">
         <v>35</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <v>25</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="11">
         <v>55</v>
       </c>
     </row>
@@ -1659,34 +1693,34 @@
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="5">
-        <v>2</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10">
         <v>4</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="10">
         <v>1200</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>16</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>106</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="11">
         <v>156</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="11">
         <v>46</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="11">
         <v>36</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="11">
         <v>26</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="11">
         <v>56</v>
       </c>
     </row>
@@ -1694,34 +1728,34 @@
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="5">
-        <v>2</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10">
         <v>5</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="10">
         <v>1300</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>17</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>107</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="11">
         <v>157</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="11">
         <v>47</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="11">
         <v>37</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="11">
         <v>27</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="11">
         <v>57</v>
       </c>
     </row>
@@ -1729,34 +1763,34 @@
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="5">
-        <v>2</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
         <v>6</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="10">
         <v>1400</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>18</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>108</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="11">
         <v>158</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="11">
         <v>48</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="11">
         <v>38</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="11">
         <v>28</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="11">
         <v>58</v>
       </c>
     </row>
@@ -1764,34 +1798,34 @@
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="5">
-        <v>2</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10">
         <v>7</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="10">
         <v>1500</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>19</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>109</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="11">
         <v>159</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="11">
         <v>49</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="11">
         <v>39</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="11">
         <v>29</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="11">
         <v>59</v>
       </c>
     </row>
@@ -1799,34 +1833,34 @@
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="5">
-        <v>2</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10">
         <v>8</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="10">
         <v>1600</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>20</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>110</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="11">
         <v>160</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="11">
         <v>50</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="11">
         <v>40</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="11">
         <v>30</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="11">
         <v>60</v>
       </c>
     </row>
@@ -1834,34 +1868,34 @@
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="5">
-        <v>2</v>
-      </c>
-      <c r="C30" s="17">
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
         <v>9</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="10">
         <v>1700</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>21</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>111</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="11">
         <v>161</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="11">
         <v>51</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="11">
         <v>41</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="11">
         <v>31</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="11">
         <v>61</v>
       </c>
     </row>
@@ -1869,13 +1903,13 @@
       <c r="A31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="7">
-        <v>2</v>
-      </c>
-      <c r="C31" s="18">
+      <c r="B31" s="12">
+        <v>2</v>
+      </c>
+      <c r="C31" s="12">
         <v>10</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="12">
         <v>1800</v>
       </c>
       <c r="E31" s="12">
@@ -1904,34 +1938,34 @@
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" s="19">
+      <c r="B32" s="13">
+        <v>2</v>
+      </c>
+      <c r="C32" s="13">
         <v>1</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="13">
         <v>20000</v>
       </c>
       <c r="E32" s="13">
         <v>15</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="11">
         <v>104</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="11">
         <v>154</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="11">
         <v>44</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="11">
         <v>34</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="11">
         <v>24</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="11">
         <v>54</v>
       </c>
     </row>
@@ -1939,34 +1973,34 @@
       <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="19">
-        <v>2</v>
-      </c>
-      <c r="D33" s="19">
+      <c r="B33" s="13">
+        <v>2</v>
+      </c>
+      <c r="C33" s="13">
+        <v>2</v>
+      </c>
+      <c r="D33" s="13">
         <v>2000</v>
       </c>
       <c r="E33" s="13">
         <v>16</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="11">
         <v>105</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="11">
         <v>155</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="11">
         <v>45</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="11">
         <v>35</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="11">
         <v>25</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="11">
         <v>55</v>
       </c>
     </row>
@@ -1974,34 +2008,34 @@
       <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="B34" s="13">
+        <v>2</v>
+      </c>
+      <c r="C34" s="13">
         <v>3</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="13">
         <v>2200</v>
       </c>
       <c r="E34" s="13">
         <v>17</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="11">
         <v>106</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="11">
         <v>156</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="11">
         <v>46</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="11">
         <v>36</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="11">
         <v>26</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="11">
         <v>56</v>
       </c>
     </row>
@@ -2009,34 +2043,34 @@
       <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="19">
+      <c r="B35" s="13">
+        <v>2</v>
+      </c>
+      <c r="C35" s="13">
         <v>4</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="13">
         <v>2400</v>
       </c>
       <c r="E35" s="13">
         <v>18</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="11">
         <v>107</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="11">
         <v>157</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="11">
         <v>47</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="11">
         <v>37</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="11">
         <v>27</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="11">
         <v>57</v>
       </c>
     </row>
@@ -2044,34 +2078,34 @@
       <c r="A36" t="s">
         <v>13</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="13">
         <v>5</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="13">
         <v>2600</v>
       </c>
       <c r="E36" s="13">
         <v>19</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="11">
         <v>108</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="11">
         <v>158</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="11">
         <v>48</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="11">
         <v>38</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="11">
         <v>28</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="11">
         <v>58</v>
       </c>
     </row>
@@ -2079,34 +2113,34 @@
       <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="13">
         <v>3</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="13">
         <v>6</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="13">
         <v>2800</v>
       </c>
       <c r="E37" s="13">
         <v>20</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="11">
         <v>109</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="11">
         <v>159</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="11">
         <v>49</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="11">
         <v>39</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="11">
         <v>29</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="11">
         <v>59</v>
       </c>
     </row>
@@ -2114,34 +2148,34 @@
       <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="13">
         <v>3</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="13">
         <v>7</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="13">
         <v>3000</v>
       </c>
       <c r="E38" s="13">
         <v>21</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="11">
         <v>110</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="11">
         <v>160</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="11">
         <v>50</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="11">
         <v>40</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="11">
         <v>30</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="11">
         <v>60</v>
       </c>
     </row>
@@ -2149,34 +2183,34 @@
       <c r="A39" t="s">
         <v>13</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="13">
         <v>3</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="13">
         <v>8</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="13">
         <v>3200</v>
       </c>
       <c r="E39" s="13">
         <v>22</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="11">
         <v>111</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="11">
         <v>161</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="11">
         <v>51</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="11">
         <v>41</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="11">
         <v>31</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="11">
         <v>61</v>
       </c>
     </row>
@@ -2184,34 +2218,34 @@
       <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="13">
         <v>3</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="13">
         <v>9</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="13">
         <v>3400</v>
       </c>
       <c r="E40" s="13">
         <v>23</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="11">
         <v>112</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="11">
         <v>162</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="11">
         <v>52</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="11">
         <v>42</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="11">
         <v>32</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="11">
         <v>62</v>
       </c>
     </row>
@@ -2219,34 +2253,34 @@
       <c r="A41" t="s">
         <v>13</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="13">
         <v>3</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="13">
         <v>10</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="13">
         <v>3600</v>
       </c>
       <c r="E41" s="13">
         <v>24</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="11">
         <v>113</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="11">
         <v>163</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="11">
         <v>53</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="11">
         <v>43</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="11">
         <v>33</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="11">
         <v>63</v>
       </c>
     </row>
@@ -2260,17 +2294,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E72EDC-E801-451A-A818-5D9F5732F12C}">
-  <dimension ref="C8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>14</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>108</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2278,4 +2375,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C077E246-CD85-420D-A5E6-48AAD0E5E620}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RhythmiCar_Unity/Assets/Resources/Data/DataBase.xlsx
+++ b/RhythmiCar_Unity/Assets/Resources/Data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSH\Documents\Rhythm\RhythmiCar_Unity\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBAE507-1A6F-499C-AA0D-9EBC913DE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6EC22E0-A2EF-4AAD-97A3-E283C721415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3540" windowWidth="12090" windowHeight="7905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="2850" windowWidth="12090" windowHeight="7905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CarData" sheetId="1" r:id="rId1"/>
@@ -309,46 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelUpCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acceleration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boosterMaxGauge</t>
-  </si>
-  <si>
-    <t>boosterSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turnStrength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brakeForce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rhythmPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>맥라렌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,59 +327,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>songEquipCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isOpend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사막의 질주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울타리 마을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>isOpend</t>
-  </si>
-  <si>
     <t>아지랑이 사막</t>
   </si>
   <si>
     <t>울타리 도시</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SongEquipCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoosterMaxGauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoosterSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnStrength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrakeForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RhythmPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SongName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_90BPM_WakeUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_108BPM_IfI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_180BPM_Turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_196BPM_Bluedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WakeUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bluedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsOpend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -525,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,6 +576,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -830,7 +867,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -839,54 +876,54 @@
     <col min="2" max="2" width="16.375" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>8</v>
+      <c r="J1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="9">
         <v>2</v>
@@ -897,31 +934,31 @@
       <c r="D2" s="9">
         <v>2000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="16">
         <v>11.1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="16">
         <v>101</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="16">
         <v>151</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="16">
         <v>41</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="16">
         <v>31</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="16">
         <v>21</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="16">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -932,31 +969,31 @@
       <c r="D3" s="10">
         <v>100</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>12</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="17">
         <v>102</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="17">
         <v>152</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="17">
         <v>42</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="17">
         <v>32</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="17">
         <v>22</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="17">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
@@ -967,31 +1004,31 @@
       <c r="D4" s="10">
         <v>150</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <v>13</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="17">
         <v>103</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="17">
         <v>153</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="17">
         <v>43</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="17">
         <v>33</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="17">
         <v>23</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="17">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B5" s="11">
         <v>2</v>
@@ -1002,31 +1039,31 @@
       <c r="D5" s="10">
         <v>200</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <v>14</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="17">
         <v>104</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="17">
         <v>154</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="17">
         <v>44</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="17">
         <v>34</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="17">
         <v>24</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
@@ -1037,31 +1074,31 @@
       <c r="D6" s="10">
         <v>250</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="17">
         <v>15</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="17">
         <v>105</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="17">
         <v>155</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="17">
         <v>45</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="17">
         <v>35</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="17">
         <v>25</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
@@ -1072,31 +1109,31 @@
       <c r="D7" s="10">
         <v>300</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="17">
         <v>16</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="17">
         <v>106</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="17">
         <v>156</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="17">
         <v>46</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="17">
         <v>36</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="17">
         <v>26</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="17">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
@@ -1107,31 +1144,31 @@
       <c r="D8" s="10">
         <v>350</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="17">
         <v>17</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="17">
         <v>107</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="17">
         <v>157</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="17">
         <v>47</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="17">
         <v>37</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="17">
         <v>27</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="17">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
@@ -1142,31 +1179,31 @@
       <c r="D9" s="10">
         <v>400</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="17">
         <v>18</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="17">
         <v>108</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="17">
         <v>158</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="17">
         <v>48</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="17">
         <v>38</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="17">
         <v>28</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="17">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
@@ -1177,31 +1214,31 @@
       <c r="D10" s="10">
         <v>450</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="17">
         <v>19</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="17">
         <v>109</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="17">
         <v>159</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="17">
         <v>49</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="17">
         <v>39</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="17">
         <v>29</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="17">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
@@ -1212,31 +1249,31 @@
       <c r="D11" s="12">
         <v>500</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="18">
         <v>20</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="18">
         <v>110</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="18">
         <v>160</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="18">
         <v>50</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="18">
         <v>40</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="18">
         <v>30</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="18">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="13">
         <v>3</v>
@@ -1247,31 +1284,31 @@
       <c r="D12" s="13">
         <v>5000</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="19">
         <v>12</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="20">
         <v>102</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="20">
         <v>152</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="20">
         <v>42</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="20">
         <v>32</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="20">
         <v>22</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="20">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" s="13">
         <v>3</v>
@@ -1282,31 +1319,31 @@
       <c r="D13" s="13">
         <v>200</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="19">
         <v>13</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="20">
         <v>103</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="20">
         <v>153</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="20">
         <v>43</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="20">
         <v>33</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="20">
         <v>23</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="20">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B14" s="13">
         <v>3</v>
@@ -1317,31 +1354,31 @@
       <c r="D14" s="13">
         <v>250</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="19">
         <v>14</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="20">
         <v>104</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="20">
         <v>154</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="20">
         <v>44</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="20">
         <v>34</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="20">
         <v>24</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="20">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B15" s="13">
         <v>3</v>
@@ -1352,31 +1389,31 @@
       <c r="D15" s="13">
         <v>300</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="19">
         <v>15</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="20">
         <v>105</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="20">
         <v>155</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="20">
         <v>45</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="20">
         <v>35</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="20">
         <v>25</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="20">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B16" s="13">
         <v>3</v>
@@ -1387,31 +1424,31 @@
       <c r="D16" s="13">
         <v>350</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="19">
         <v>16</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="20">
         <v>106</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="20">
         <v>156</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="20">
         <v>46</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="20">
         <v>36</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="20">
         <v>26</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="20">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B17" s="13">
         <v>3</v>
@@ -1422,31 +1459,31 @@
       <c r="D17" s="13">
         <v>400</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="19">
         <v>17</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="20">
         <v>107</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="20">
         <v>157</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="20">
         <v>47</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="20">
         <v>37</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="20">
         <v>27</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="20">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B18" s="13">
         <v>3</v>
@@ -1457,31 +1494,31 @@
       <c r="D18" s="13">
         <v>450</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="19">
         <v>18</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="20">
         <v>108</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="20">
         <v>158</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="20">
         <v>48</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="20">
         <v>38</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="20">
         <v>28</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="20">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B19" s="13">
         <v>3</v>
@@ -1492,31 +1529,31 @@
       <c r="D19" s="13">
         <v>500</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="19">
         <v>19</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="20">
         <v>109</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="20">
         <v>159</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="20">
         <v>49</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="20">
         <v>39</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="20">
         <v>29</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="20">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20" s="13">
         <v>3</v>
@@ -1527,31 +1564,31 @@
       <c r="D20" s="13">
         <v>550</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="19">
         <v>20</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="20">
         <v>110</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="20">
         <v>160</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="20">
         <v>50</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="20">
         <v>40</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="20">
         <v>30</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B21" s="13">
         <v>3</v>
@@ -1562,31 +1599,31 @@
       <c r="D21" s="13">
         <v>600</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="19">
         <v>21</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="20">
         <v>111</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="20">
         <v>161</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="20">
         <v>51</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="20">
         <v>41</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="20">
         <v>31</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="20">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B22" s="9">
         <v>2</v>
@@ -1597,31 +1634,31 @@
       <c r="D22" s="9">
         <v>10000</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="16">
         <v>13</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="16">
         <v>103</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="16">
         <v>153</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="16">
         <v>43</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="16">
         <v>33</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="16">
         <v>23</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="16">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B23" s="10">
         <v>2</v>
@@ -1632,31 +1669,31 @@
       <c r="D23" s="10">
         <v>1000</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="17">
         <v>14</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="17">
         <v>104</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="20">
         <v>154</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="20">
         <v>44</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="20">
         <v>34</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="20">
         <v>24</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="20">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B24" s="10">
         <v>2</v>
@@ -1667,31 +1704,31 @@
       <c r="D24" s="10">
         <v>1100</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="17">
         <v>15</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="17">
         <v>105</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="20">
         <v>155</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="20">
         <v>45</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="20">
         <v>35</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="20">
         <v>25</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="20">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B25" s="10">
         <v>2</v>
@@ -1702,31 +1739,31 @@
       <c r="D25" s="10">
         <v>1200</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="17">
         <v>16</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="17">
         <v>106</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="20">
         <v>156</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="20">
         <v>46</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="20">
         <v>36</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="20">
         <v>26</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="20">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
@@ -1737,31 +1774,31 @@
       <c r="D26" s="10">
         <v>1300</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="17">
         <v>17</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="17">
         <v>107</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="20">
         <v>157</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="20">
         <v>47</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="20">
         <v>37</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="20">
         <v>27</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="20">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B27" s="10">
         <v>2</v>
@@ -1772,31 +1809,31 @@
       <c r="D27" s="10">
         <v>1400</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="17">
         <v>18</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="17">
         <v>108</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="20">
         <v>158</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="20">
         <v>48</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="20">
         <v>38</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="20">
         <v>28</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="20">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B28" s="10">
         <v>2</v>
@@ -1807,31 +1844,31 @@
       <c r="D28" s="10">
         <v>1500</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="17">
         <v>19</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="17">
         <v>109</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="20">
         <v>159</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="20">
         <v>49</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="20">
         <v>39</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="20">
         <v>29</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="20">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B29" s="10">
         <v>2</v>
@@ -1842,31 +1879,31 @@
       <c r="D29" s="10">
         <v>1600</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="17">
         <v>20</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="17">
         <v>110</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="20">
         <v>160</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="20">
         <v>50</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="20">
         <v>40</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="20">
         <v>30</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B30" s="10">
         <v>2</v>
@@ -1877,31 +1914,31 @@
       <c r="D30" s="10">
         <v>1700</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="17">
         <v>21</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="17">
         <v>111</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="20">
         <v>161</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="20">
         <v>51</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="20">
         <v>41</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="20">
         <v>31</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="20">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B31" s="12">
         <v>2</v>
@@ -1912,31 +1949,31 @@
       <c r="D31" s="12">
         <v>1800</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="18">
         <v>22</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="18">
         <v>112</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="18">
         <v>162</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="18">
         <v>52</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="18">
         <v>42</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="18">
         <v>32</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="18">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B32" s="13">
         <v>2</v>
@@ -1947,31 +1984,31 @@
       <c r="D32" s="13">
         <v>20000</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="19">
         <v>15</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="20">
         <v>104</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="20">
         <v>154</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="20">
         <v>44</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="20">
         <v>34</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="20">
         <v>24</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="20">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B33" s="13">
         <v>2</v>
@@ -1982,31 +2019,31 @@
       <c r="D33" s="13">
         <v>2000</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="19">
         <v>16</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="20">
         <v>105</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="20">
         <v>155</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="20">
         <v>45</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="20">
         <v>35</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="20">
         <v>25</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="20">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B34" s="13">
         <v>2</v>
@@ -2017,31 +2054,31 @@
       <c r="D34" s="13">
         <v>2200</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="19">
         <v>17</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="20">
         <v>106</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="20">
         <v>156</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="20">
         <v>46</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="20">
         <v>36</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="20">
         <v>26</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="20">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B35" s="13">
         <v>2</v>
@@ -2052,31 +2089,31 @@
       <c r="D35" s="13">
         <v>2400</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="19">
         <v>18</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="20">
         <v>107</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="20">
         <v>157</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="20">
         <v>47</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="20">
         <v>37</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="20">
         <v>27</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="20">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B36" s="13">
         <v>3</v>
@@ -2087,31 +2124,31 @@
       <c r="D36" s="13">
         <v>2600</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="19">
         <v>19</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="20">
         <v>108</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="20">
         <v>158</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="20">
         <v>48</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="20">
         <v>38</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="20">
         <v>28</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="20">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B37" s="13">
         <v>3</v>
@@ -2122,31 +2159,31 @@
       <c r="D37" s="13">
         <v>2800</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="19">
         <v>20</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="20">
         <v>109</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="20">
         <v>159</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="20">
         <v>49</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="20">
         <v>39</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="20">
         <v>29</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="20">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B38" s="13">
         <v>3</v>
@@ -2157,31 +2194,31 @@
       <c r="D38" s="13">
         <v>3000</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="19">
         <v>21</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="20">
         <v>110</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="20">
         <v>160</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="20">
         <v>50</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="20">
         <v>40</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="20">
         <v>30</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B39" s="13">
         <v>3</v>
@@ -2192,31 +2229,31 @@
       <c r="D39" s="13">
         <v>3200</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="19">
         <v>22</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="20">
         <v>111</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="20">
         <v>161</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="20">
         <v>51</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="20">
         <v>41</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="20">
         <v>31</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="20">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B40" s="13">
         <v>3</v>
@@ -2227,31 +2264,31 @@
       <c r="D40" s="13">
         <v>3400</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="19">
         <v>23</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="20">
         <v>112</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="20">
         <v>162</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="20">
         <v>52</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="20">
         <v>42</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="20">
         <v>32</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="20">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B41" s="13">
         <v>3</v>
@@ -2262,25 +2299,25 @@
       <c r="D41" s="13">
         <v>3600</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="19">
         <v>24</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="20">
         <v>113</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="20">
         <v>163</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="20">
         <v>53</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="20">
         <v>43</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="20">
         <v>33</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="20">
         <v>63</v>
       </c>
     </row>
@@ -2294,80 +2331,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E72EDC-E801-451A-A818-5D9F5732F12C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="b">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>90</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="b">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="b">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>500</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>108</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>196</v>
+      </c>
+      <c r="G5">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2382,25 +2475,25 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
@@ -2411,7 +2504,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B3" s="14">
         <v>2</v>
@@ -2422,7 +2515,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B4" s="14">
         <v>3</v>
@@ -2433,7 +2526,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B5" s="14">
         <v>4</v>
@@ -2444,7 +2537,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -2455,7 +2548,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B7" s="14">
         <v>2</v>
@@ -2466,7 +2559,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B8" s="14">
         <v>3</v>
@@ -2477,7 +2570,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B9" s="14">
         <v>4</v>

--- a/RhythmiCar_Unity/Assets/Resources/Data/DataBase.xlsx
+++ b/RhythmiCar_Unity/Assets/Resources/Data/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSH\Documents\Rhythm\RhythmiCar_Unity\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6EC22E0-A2EF-4AAD-97A3-E283C721415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB997783-C2D0-4AEF-A896-870AEAF41549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="2850" windowWidth="12090" windowHeight="7905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="2850" windowWidth="12090" windowHeight="7905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CarData" sheetId="1" r:id="rId1"/>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_196BPM_Bluedy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WakeUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +435,9 @@
   <si>
     <t>MaxSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_196BPM_SuddenShower</t>
   </si>
 </sst>
 </file>
@@ -2333,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E72EDC-E801-451A-A818-5D9F5732F12C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2359,16 +2358,16 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2376,10 +2375,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2399,10 +2398,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2422,10 +2421,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -2442,13 +2441,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2474,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C077E246-CD85-420D-A5E6-48AAD0E5E620}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2482,13 +2481,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
